--- a/final project 2.xlsx
+++ b/final project 2.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E8DE322-F083-4CF3-8D7F-F6896C3AE0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9D2103-2956-4803-87C0-9943D187B6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="5" xr2:uid="{1470F2E4-BB4B-4B3A-AF56-6382FBBB351A}"/>
   </bookViews>
@@ -30,9 +30,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
@@ -1057,14 +1056,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>if</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>DOES</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> like  translate to uploads</a:t>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> MORE UPLOAD  GENERATE MORE  LIKES  </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1401,39 +1400,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1880677935"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1575,14 +1547,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>sum</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Sum</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of fowllowers, engagement rate,sum of followers</a:t>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> of fowllowers, Engagement rate,Sum of Followers</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2518,39 +2490,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1910485999"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2563,37 +2508,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2641,7 +2555,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -4624,14 +4537,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>numbers</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Numbers</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t>  of followers</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5026,37 +4939,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5102,7 +4984,6 @@
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
@@ -5155,14 +5036,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>following</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Following</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t> vs Avg.uploads</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5674,14 +5555,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>average</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Average</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t> engagement rate </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6195,8 +6076,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>following vs Avg.uploads</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Following vs Avg.uploads</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -15590,7 +15471,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CA3E9E88-D5C8-486E-B812-86C323441987}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CA3E9E88-D5C8-486E-B812-86C323441987}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField numFmtId="1" showAll="0"/>
@@ -15709,7 +15590,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB990AE4-F319-4EC1-9901-79E34465DAA6}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB990AE4-F319-4EC1-9901-79E34465DAA6}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField numFmtId="1" showAll="0"/>
@@ -15891,7 +15772,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{959CF5C4-1056-4104-817A-E5771A63141D}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{959CF5C4-1056-4104-817A-E5771A63141D}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField numFmtId="1" showAll="0"/>
@@ -15995,7 +15876,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{975E5BF0-060D-4148-835E-55EAF051C73D}" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{975E5BF0-060D-4148-835E-55EAF051C73D}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField numFmtId="1" showAll="0"/>
@@ -16102,7 +15983,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C43F31BE-58F2-4219-ABD8-1EA67B6DE398}" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C43F31BE-58F2-4219-ABD8-1EA67B6DE398}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
   <location ref="A3:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField numFmtId="1" showAll="0"/>
@@ -18348,14 +18229,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>113</v>
       </c>
@@ -18363,7 +18244,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>117</v>
       </c>
@@ -18371,7 +18252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>118</v>
       </c>
@@ -18379,7 +18260,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>114</v>
       </c>
@@ -18401,13 +18282,13 @@
       <selection activeCell="E21" sqref="C21:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>113</v>
       </c>
@@ -18415,7 +18296,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>117</v>
       </c>
@@ -18423,7 +18304,7 @@
         <v>23.996578674266509</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>118</v>
       </c>
@@ -18431,7 +18312,7 @@
         <v>41.462482277627352</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>114</v>
       </c>
@@ -18453,13 +18334,13 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>113</v>
       </c>
@@ -18467,7 +18348,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>122</v>
       </c>
@@ -18475,7 +18356,7 @@
         <v>2922.318181818182</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>123</v>
       </c>
@@ -18483,7 +18364,7 @@
         <v>1962.7179487179487</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>114</v>
       </c>
@@ -18505,14 +18386,14 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>113</v>
       </c>
@@ -18520,7 +18401,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>125</v>
       </c>
@@ -18528,7 +18409,7 @@
         <v>3425.787878787879</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>126</v>
       </c>
@@ -18536,7 +18417,7 @@
         <v>1557.1940298507463</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>114</v>
       </c>
@@ -18558,15 +18439,15 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>113</v>
       </c>
@@ -18580,7 +18461,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
@@ -18594,7 +18475,7 @@
         <v>37700000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>60</v>
       </c>
@@ -18608,7 +18489,7 @@
         <v>44200000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
@@ -18622,7 +18503,7 @@
         <v>44200000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -18636,7 +18517,7 @@
         <v>34600000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>44</v>
       </c>
@@ -18650,7 +18531,7 @@
         <v>39600000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>41</v>
       </c>
@@ -18664,7 +18545,7 @@
         <v>38900000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -18678,7 +18559,7 @@
         <v>33400000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
@@ -18692,7 +18573,7 @@
         <v>36600000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
@@ -18706,7 +18587,7 @@
         <v>37900000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>77</v>
       </c>
@@ -18720,7 +18601,7 @@
         <v>55000000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>114</v>
       </c>
@@ -18751,13 +18632,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA79086-B377-4B02-88FF-A55AD6565121}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="62" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="53" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -18785,7 +18666,7 @@
       <c r="Y1" s="9"/>
       <c r="Z1" s="9"/>
     </row>
-    <row r="2" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -18815,7 +18696,7 @@
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -18864,25 +18745,25 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7" style="4" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.26953125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>112</v>
       </c>
@@ -18926,7 +18807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -18978,7 +18859,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -19030,7 +18911,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -19082,7 +18963,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -19134,7 +19015,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -19187,7 +19068,7 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -19239,7 +19120,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -19291,7 +19172,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -19343,7 +19224,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -19395,7 +19276,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -19447,7 +19328,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -19499,7 +19380,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -19551,7 +19432,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -19603,7 +19484,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -19655,7 +19536,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -19707,7 +19588,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -19759,7 +19640,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -19811,7 +19692,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -19863,7 +19744,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -19915,7 +19796,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -19967,7 +19848,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -20019,7 +19900,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -20071,7 +19952,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -20123,7 +20004,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -20175,7 +20056,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -20227,7 +20108,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -20279,7 +20160,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -20331,7 +20212,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -20383,7 +20264,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -20435,7 +20316,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -20487,7 +20368,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -20539,7 +20420,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -20591,7 +20472,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -20643,7 +20524,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -20695,7 +20576,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -20747,7 +20628,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -20799,7 +20680,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -20851,7 +20732,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -20903,7 +20784,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -20955,7 +20836,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -21007,7 +20888,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -21059,7 +20940,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -21111,7 +20992,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -21163,7 +21044,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -21215,7 +21096,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -21267,7 +21148,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -21319,7 +21200,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -21371,7 +21252,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -21423,7 +21304,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -21475,7 +21356,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -21527,7 +21408,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -21579,7 +21460,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -21631,7 +21512,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -21683,7 +21564,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -21735,7 +21616,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -21787,7 +21668,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -21839,7 +21720,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -21891,7 +21772,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -21943,7 +21824,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -21995,7 +21876,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -22047,7 +21928,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -22099,7 +21980,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -22151,7 +22032,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -22203,7 +22084,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -22255,7 +22136,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -22307,7 +22188,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -22359,7 +22240,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -22411,7 +22292,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -22463,7 +22344,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -22515,7 +22396,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -22567,7 +22448,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -22619,7 +22500,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -22671,7 +22552,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -22723,7 +22604,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -22775,7 +22656,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -22827,7 +22708,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -22879,7 +22760,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -22931,7 +22812,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -22983,7 +22864,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -23035,7 +22916,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -23087,7 +22968,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -23139,7 +23020,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -23191,7 +23072,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -23243,7 +23124,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -23295,7 +23176,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -23347,7 +23228,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -23399,7 +23280,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -23451,7 +23332,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -23503,7 +23384,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -23555,7 +23436,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -23607,7 +23488,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -23659,7 +23540,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -23711,7 +23592,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -23763,7 +23644,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -23815,7 +23696,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -23867,7 +23748,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -23919,7 +23800,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -23971,7 +23852,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -24023,7 +23904,7 @@
         <v>low</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -24075,7 +23956,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>100</v>
       </c>
